--- a/shryuu.xlsx
+++ b/shryuu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shruthi\Desktop\m1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FC5EA-A326-46D0-8946-C0D4E2979E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF910C0-4636-48C9-8D42-0CD091B2D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ftyfytruy</t>
   </si>
   <si>
     <t>yuggjiu</t>
+  </si>
+  <si>
+    <t>nhnhgn</t>
+  </si>
+  <si>
+    <t>jnhnjhg</t>
+  </si>
+  <si>
+    <t>bghngf</t>
+  </si>
+  <si>
+    <t>tyhtrfg</t>
+  </si>
+  <si>
+    <t>dhfgthrgvfg</t>
   </si>
 </sst>
 </file>
@@ -351,7 +366,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,6 +375,23 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
